--- a/photo_data_new.xlsx
+++ b/photo_data_new.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -92,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -112,6 +114,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -455,10 +458,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -537,41 +540,138 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>44565</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Марго</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n"/>
-      <c r="F4" s="4" t="n"/>
-      <c r="G4" s="4" t="n"/>
+      <c r="A4" s="7" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Минск</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+375</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
+      <c r="A5" s="7" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>махачкала</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ира</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>44569</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Махачкала</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Иркутс</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+375</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Мишлен</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+375</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
